--- a/EXCEL/DATA OBAT PERBULAN.xlsx
+++ b/EXCEL/DATA OBAT PERBULAN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="154">
   <si>
     <t>No</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>09-25 Akhir</t>
+  </si>
+  <si>
+    <t>9-25 Masuk</t>
   </si>
   <si>
     <t>Allopurinol</t>
@@ -483,11 +486,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -565,6 +568,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -573,7 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,31 +599,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +623,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +651,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -649,18 +666,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,18 +681,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,19 +716,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,61 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,49 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,25 +836,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +866,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,9 +953,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,17 +1015,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,167 +1048,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,18 +1211,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,14 +1542,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BF92"/>
+  <dimension ref="A1:BG94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="AU63" sqref="AU63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1554,10 +1557,12 @@
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="58" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="58" width="10.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:58">
+    <row r="1" ht="16.5" customHeight="1" spans="1:59">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1732,16 +1737,19 @@
       <c r="BF1" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="BG1" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:58">
+    <row r="2" ht="16.5" spans="1:59">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -1935,17 +1943,20 @@
         <f>BD2-BE2</f>
         <v>185</v>
       </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:58">
+    <row r="3" ht="16.5" spans="1:59">
       <c r="A3" s="6">
         <f>+A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -2139,17 +2150,20 @@
         <f t="shared" ref="BF3:BF66" si="25">BD3-BE3</f>
         <v>70</v>
       </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:58">
+    <row r="4" ht="16.5" spans="1:59">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A67" si="26">+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8">
         <v>200</v>
@@ -2343,17 +2357,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:58">
+    <row r="5" ht="16.5" spans="1:59">
       <c r="A5" s="6">
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -2547,17 +2564,20 @@
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:58">
+    <row r="6" ht="16.5" spans="1:59">
       <c r="A6" s="6">
         <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -2751,17 +2771,20 @@
         <f t="shared" si="25"/>
         <v>190</v>
       </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" ht="16.5" spans="1:58">
+    <row r="7" ht="16.5" spans="1:59">
       <c r="A7" s="6">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -2955,17 +2978,20 @@
         <f t="shared" si="25"/>
         <v>150</v>
       </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" ht="16.5" spans="1:58">
+    <row r="8" ht="16.5" spans="1:59">
       <c r="A8" s="6">
         <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -3159,17 +3185,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" spans="1:58">
+    <row r="9" ht="16.5" spans="1:59">
       <c r="A9" s="6">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -3363,17 +3392,20 @@
         <f t="shared" si="25"/>
         <v>30</v>
       </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" spans="1:58">
+    <row r="10" ht="16.5" spans="1:59">
       <c r="A10" s="6">
         <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -3567,17 +3599,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" spans="1:58">
+    <row r="11" ht="16.5" spans="1:59">
       <c r="A11" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -3771,17 +3806,20 @@
         <f t="shared" si="25"/>
         <v>-250</v>
       </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" ht="16.5" spans="1:58">
+    <row r="12" ht="16.5" spans="1:59">
       <c r="A12" s="6">
         <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -3975,17 +4013,20 @@
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" ht="16.5" spans="1:58">
+    <row r="13" ht="16.5" spans="1:59">
       <c r="A13" s="6">
         <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -4179,17 +4220,20 @@
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" ht="16.5" spans="1:58">
+    <row r="14" ht="16.5" spans="1:59">
       <c r="A14" s="6">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -4383,17 +4427,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" ht="16.5" spans="1:58">
+    <row r="15" ht="16.5" spans="1:59">
       <c r="A15" s="6">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -4587,17 +4634,20 @@
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" ht="16.5" spans="1:58">
+    <row r="16" ht="16.5" spans="1:59">
       <c r="A16" s="6">
         <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -4791,17 +4841,20 @@
         <f t="shared" si="25"/>
         <v>38</v>
       </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" ht="16.5" spans="1:58">
+    <row r="17" ht="16.5" spans="1:59">
       <c r="A17" s="6">
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -4995,17 +5048,20 @@
         <f t="shared" si="25"/>
         <v>10</v>
       </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" ht="16.5" spans="1:58">
+    <row r="18" ht="16.5" spans="1:59">
       <c r="A18" s="6">
         <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -5199,17 +5255,20 @@
         <f t="shared" si="25"/>
         <v>330</v>
       </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" ht="16.5" spans="1:58">
+    <row r="19" ht="16.5" spans="1:59">
       <c r="A19" s="6">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -5403,17 +5462,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" ht="16.5" spans="1:58">
+    <row r="20" ht="16.5" spans="1:59">
       <c r="A20" s="6">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -5607,17 +5669,20 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" ht="16.5" spans="1:58">
+    <row r="21" ht="16.5" spans="1:59">
       <c r="A21" s="6">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -5811,17 +5876,20 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" ht="16.5" spans="1:58">
+    <row r="22" ht="16.5" spans="1:59">
       <c r="A22" s="6">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="10">
         <v>18</v>
@@ -6015,17 +6083,20 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" ht="16.5" spans="1:58">
+    <row r="23" ht="16.5" spans="1:59">
       <c r="A23" s="6">
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -6219,17 +6290,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" ht="16.5" spans="1:58">
+    <row r="24" ht="16.5" spans="1:59">
       <c r="A24" s="6">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -6423,17 +6497,20 @@
         <f t="shared" si="25"/>
         <v>159</v>
       </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" ht="16.5" spans="1:58">
+    <row r="25" ht="16.5" spans="1:59">
       <c r="A25" s="6">
         <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8">
         <v>24</v>
@@ -6627,17 +6704,20 @@
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" ht="16.5" spans="1:58">
+    <row r="26" ht="16.5" spans="1:59">
       <c r="A26" s="6">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="8">
         <v>24</v>
@@ -6831,17 +6911,20 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" ht="16.5" spans="1:58">
+    <row r="27" ht="16.5" spans="1:59">
       <c r="A27" s="6">
         <f t="shared" si="26"/>
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
@@ -7035,17 +7118,20 @@
         <f t="shared" si="25"/>
         <v>96</v>
       </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" ht="16.5" spans="1:58">
+    <row r="28" ht="16.5" spans="1:59">
       <c r="A28" s="6">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="8">
         <v>260</v>
@@ -7239,17 +7325,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" ht="16.5" spans="1:58">
+    <row r="29" ht="16.5" spans="1:59">
       <c r="A29" s="6">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -7443,17 +7532,20 @@
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" ht="16.5" spans="1:58">
+    <row r="30" ht="16.5" spans="1:59">
       <c r="A30" s="6">
         <f t="shared" si="26"/>
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" s="8">
         <v>200</v>
@@ -7647,17 +7739,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" ht="16.5" spans="1:58">
+    <row r="31" ht="16.5" spans="1:59">
       <c r="A31" s="6">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="8">
         <v>24</v>
@@ -7851,17 +7946,20 @@
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" ht="16.5" spans="1:58">
+    <row r="32" ht="16.5" spans="1:59">
       <c r="A32" s="6">
         <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="8">
         <v>50</v>
@@ -8055,17 +8153,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" ht="16.5" spans="1:58">
+    <row r="33" ht="16.5" spans="1:59">
       <c r="A33" s="6">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -8259,17 +8360,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" ht="16.5" spans="1:58">
+    <row r="34" ht="16.5" spans="1:59">
       <c r="A34" s="6">
         <f t="shared" si="26"/>
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
@@ -8463,17 +8567,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" ht="16.5" spans="1:58">
+    <row r="35" ht="16.5" spans="1:59">
       <c r="A35" s="6">
         <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -8667,17 +8774,20 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" ht="16.5" spans="1:58">
+    <row r="36" ht="16.5" spans="1:59">
       <c r="A36" s="6">
         <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -8871,17 +8981,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" ht="16.5" spans="1:58">
+    <row r="37" ht="16.5" spans="1:59">
       <c r="A37" s="6">
         <f t="shared" si="26"/>
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="8">
         <v>0</v>
@@ -9075,17 +9188,20 @@
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" ht="16.5" spans="1:58">
+    <row r="38" ht="16.5" spans="1:59">
       <c r="A38" s="6">
         <f t="shared" si="26"/>
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
@@ -9279,17 +9395,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" ht="16.5" spans="1:58">
+    <row r="39" ht="16.5" spans="1:59">
       <c r="A39" s="6">
         <f t="shared" si="26"/>
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" s="8">
         <v>0</v>
@@ -9483,17 +9602,20 @@
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" ht="16.5" spans="1:58">
+    <row r="40" ht="16.5" spans="1:59">
       <c r="A40" s="6">
         <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="8">
         <v>0</v>
@@ -9687,17 +9809,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" ht="16.5" spans="1:58">
+    <row r="41" ht="16.5" spans="1:59">
       <c r="A41" s="6">
         <f t="shared" si="26"/>
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
@@ -9891,17 +10016,20 @@
         <f t="shared" si="25"/>
         <v>135</v>
       </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" ht="16.5" spans="1:58">
+    <row r="42" ht="16.5" spans="1:59">
       <c r="A42" s="6">
         <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -10095,17 +10223,20 @@
         <f t="shared" si="25"/>
         <v>-50</v>
       </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" ht="16.5" spans="1:58">
+    <row r="43" ht="16.5" spans="1:59">
       <c r="A43" s="6">
         <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -10299,17 +10430,20 @@
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" ht="16.5" spans="1:58">
+    <row r="44" ht="16.5" spans="1:59">
       <c r="A44" s="6">
         <f t="shared" si="26"/>
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" s="8">
         <v>0</v>
@@ -10503,17 +10637,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" ht="16.5" spans="1:58">
+    <row r="45" ht="16.5" spans="1:59">
       <c r="A45" s="6">
         <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
@@ -10707,17 +10844,20 @@
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" ht="16.5" spans="1:58">
+    <row r="46" ht="16.5" spans="1:59">
       <c r="A46" s="6">
         <f t="shared" si="26"/>
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="8">
         <v>300</v>
@@ -10911,17 +11051,20 @@
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" ht="16.5" spans="1:58">
+    <row r="47" ht="16.5" spans="1:59">
       <c r="A47" s="6">
         <f t="shared" si="26"/>
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" s="8">
         <v>0</v>
@@ -11115,17 +11258,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" ht="16.5" spans="1:58">
+    <row r="48" ht="16.5" spans="1:59">
       <c r="A48" s="6">
         <f t="shared" si="26"/>
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
@@ -11319,17 +11465,20 @@
         <f t="shared" si="25"/>
         <v>34</v>
       </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" ht="16.5" spans="1:58">
+    <row r="49" ht="16.5" spans="1:59">
       <c r="A49" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -11523,17 +11672,20 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" ht="16.5" spans="1:58">
+    <row r="50" ht="16.5" spans="1:59">
       <c r="A50" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
@@ -11727,17 +11879,20 @@
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" ht="16.5" spans="1:58">
+    <row r="51" ht="16.5" spans="1:59">
       <c r="A51" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
@@ -11931,17 +12086,20 @@
         <f t="shared" si="25"/>
         <v>32</v>
       </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" ht="16.5" spans="1:58">
+    <row r="52" ht="16.5" spans="1:59">
       <c r="A52" s="6">
         <f t="shared" si="26"/>
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
@@ -12135,17 +12293,20 @@
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" ht="16.5" spans="1:58">
+    <row r="53" ht="16.5" spans="1:59">
       <c r="A53" s="6">
         <f t="shared" si="26"/>
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="8">
         <v>0</v>
@@ -12339,17 +12500,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" ht="16.5" spans="1:58">
+    <row r="54" ht="16.5" spans="1:59">
       <c r="A54" s="6">
         <f t="shared" si="26"/>
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" s="8">
         <v>0</v>
@@ -12543,17 +12707,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" ht="16.5" spans="1:58">
+    <row r="55" ht="16.5" spans="1:59">
       <c r="A55" s="6">
         <f t="shared" si="26"/>
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
@@ -12747,17 +12914,20 @@
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" ht="16.5" spans="1:58">
+    <row r="56" ht="16.5" spans="1:59">
       <c r="A56" s="6">
         <f t="shared" si="26"/>
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
@@ -12951,17 +13121,20 @@
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" ht="16.5" spans="1:58">
+    <row r="57" ht="16.5" spans="1:59">
       <c r="A57" s="6">
         <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="8">
         <v>200</v>
@@ -13155,17 +13328,20 @@
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" ht="16.5" spans="1:58">
+    <row r="58" ht="16.5" spans="1:59">
       <c r="A58" s="6">
         <f t="shared" si="26"/>
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" s="8">
         <v>100</v>
@@ -13359,17 +13535,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" ht="16.5" spans="1:58">
+    <row r="59" ht="16.5" spans="1:59">
       <c r="A59" s="6">
         <f t="shared" si="26"/>
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
@@ -13563,17 +13742,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" ht="16.5" spans="1:58">
+    <row r="60" ht="16.5" spans="1:59">
       <c r="A60" s="6">
         <f t="shared" si="26"/>
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" s="8">
         <v>0</v>
@@ -13767,17 +13949,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" ht="16.5" spans="1:58">
+    <row r="61" ht="16.5" spans="1:59">
       <c r="A61" s="6">
         <f t="shared" si="26"/>
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="8">
         <v>0</v>
@@ -13971,17 +14156,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" ht="16.5" spans="1:58">
+    <row r="62" ht="16.5" spans="1:59">
       <c r="A62" s="6">
         <f t="shared" si="26"/>
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="8">
         <v>0</v>
@@ -14175,17 +14363,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" ht="16.5" spans="1:58">
+    <row r="63" ht="16.5" spans="1:59">
       <c r="A63" s="6">
         <f t="shared" si="26"/>
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63" s="8">
         <v>0</v>
@@ -14379,17 +14570,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" ht="16.5" spans="1:58">
+    <row r="64" ht="16.5" spans="1:59">
       <c r="A64" s="6">
         <f t="shared" si="26"/>
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64" s="8">
         <v>0</v>
@@ -14583,17 +14777,20 @@
         <f t="shared" si="25"/>
         <v>75</v>
       </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" ht="16.5" spans="1:58">
+    <row r="65" ht="16.5" spans="1:59">
       <c r="A65" s="6">
         <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" s="8">
         <v>0</v>
@@ -14787,17 +14984,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" ht="16.5" spans="1:58">
+    <row r="66" ht="16.5" spans="1:59">
       <c r="A66" s="6">
         <f t="shared" si="26"/>
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" s="8">
         <v>0</v>
@@ -14991,17 +15191,20 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" ht="16.5" spans="1:58">
+    <row r="67" ht="16.5" spans="1:59">
       <c r="A67" s="6">
         <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" s="8">
         <v>0</v>
@@ -15195,17 +15398,20 @@
         <f t="shared" ref="BF67:BF92" si="50">BD67-BE67</f>
         <v>0</v>
       </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" ht="16.5" spans="1:58">
+    <row r="68" ht="16.5" spans="1:59">
       <c r="A68" s="6">
         <f t="shared" ref="A68:A92" si="51">+A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="8">
         <v>0</v>
@@ -15399,17 +15605,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" ht="16.5" spans="1:58">
+    <row r="69" ht="16.5" spans="1:59">
       <c r="A69" s="6">
         <f t="shared" si="51"/>
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69" s="8">
         <v>0</v>
@@ -15603,17 +15812,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" ht="16.5" spans="1:58">
+    <row r="70" ht="16.5" spans="1:59">
       <c r="A70" s="6">
         <f t="shared" si="51"/>
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="8">
         <v>0</v>
@@ -15807,17 +16019,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" ht="16.5" spans="1:58">
+    <row r="71" ht="16.5" spans="1:59">
       <c r="A71" s="6">
         <f t="shared" si="51"/>
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71" s="8">
         <v>0</v>
@@ -16011,17 +16226,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" ht="16.5" spans="1:58">
+    <row r="72" ht="16.5" spans="1:59">
       <c r="A72" s="6">
         <f t="shared" si="51"/>
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D72" s="8">
         <v>0</v>
@@ -16215,17 +16433,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" ht="16.5" spans="1:58">
+    <row r="73" ht="16.5" spans="1:59">
       <c r="A73" s="6">
         <f t="shared" si="51"/>
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D73" s="13">
         <v>0</v>
@@ -16419,17 +16640,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" ht="16.5" spans="1:58">
+    <row r="74" ht="16.5" spans="1:59">
       <c r="A74" s="6">
         <f t="shared" si="51"/>
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D74" s="13">
         <v>0</v>
@@ -16623,17 +16847,20 @@
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" ht="16.5" spans="1:58">
+    <row r="75" ht="16.5" spans="1:59">
       <c r="A75" s="6">
         <f t="shared" si="51"/>
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D75" s="13">
         <v>0</v>
@@ -16823,17 +17050,20 @@
         <f t="shared" si="50"/>
         <v>5</v>
       </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" ht="16.5" spans="1:58">
+    <row r="76" ht="16.5" spans="1:59">
       <c r="A76" s="6">
         <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D76" s="13">
         <v>0</v>
@@ -17023,17 +17253,20 @@
         <f t="shared" si="50"/>
         <v>4</v>
       </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" ht="16.5" spans="1:58">
+    <row r="77" ht="16.5" spans="1:59">
       <c r="A77" s="6">
         <f t="shared" si="51"/>
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D77" s="13">
         <v>0</v>
@@ -17221,17 +17454,20 @@
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" ht="16.5" spans="1:58">
+    <row r="78" ht="16.5" spans="1:59">
       <c r="A78" s="6">
         <f t="shared" si="51"/>
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D78" s="13">
         <v>0</v>
@@ -17419,17 +17655,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" ht="16.5" spans="1:58">
+    <row r="79" ht="16.5" spans="1:59">
       <c r="A79" s="6">
         <f t="shared" si="51"/>
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79" s="13">
         <v>0</v>
@@ -17617,17 +17856,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" ht="16.5" spans="1:58">
+    <row r="80" ht="16.5" spans="1:59">
       <c r="A80" s="6">
         <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80" s="13">
         <v>0</v>
@@ -17807,17 +18049,20 @@
         <f t="shared" si="50"/>
         <v>50</v>
       </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" ht="16.5" spans="1:58">
+    <row r="81" ht="16.5" spans="1:59">
       <c r="A81" s="6">
         <f t="shared" si="51"/>
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81" s="13">
         <v>0</v>
@@ -17997,17 +18242,20 @@
         <f t="shared" si="50"/>
         <v>75</v>
       </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" ht="16.5" spans="1:58">
+    <row r="82" ht="16.5" spans="1:59">
       <c r="A82" s="6">
         <f t="shared" si="51"/>
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D82" s="8">
         <v>0</v>
@@ -18187,17 +18435,20 @@
         <f t="shared" si="50"/>
         <v>100</v>
       </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" ht="16.5" spans="1:58">
+    <row r="83" ht="16.5" spans="1:59">
       <c r="A83" s="6">
         <f t="shared" si="51"/>
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D83" s="8">
         <v>0</v>
@@ -18377,17 +18628,20 @@
         <f t="shared" si="50"/>
         <v>2</v>
       </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" ht="16.5" spans="1:58">
+    <row r="84" ht="16.5" spans="1:59">
       <c r="A84" s="6">
         <f t="shared" si="51"/>
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D84" s="8">
         <v>0</v>
@@ -18567,17 +18821,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" ht="16.5" spans="1:58">
+    <row r="85" ht="16.5" spans="1:59">
       <c r="A85" s="6">
         <f t="shared" si="51"/>
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D85" s="8">
         <v>0</v>
@@ -18757,17 +19014,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" ht="16.5" spans="1:58">
+    <row r="86" ht="16.5" spans="1:59">
       <c r="A86" s="6">
         <f t="shared" si="51"/>
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -18947,17 +19207,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" ht="16.5" spans="1:58">
+    <row r="87" ht="16.5" spans="1:59">
       <c r="A87" s="6">
         <f t="shared" si="51"/>
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -19137,17 +19400,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" ht="16.5" spans="1:58">
+    <row r="88" ht="16.5" spans="1:59">
       <c r="A88" s="6">
         <f t="shared" si="51"/>
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D88" s="8">
         <v>0</v>
@@ -19327,17 +19593,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" ht="16.5" spans="1:58">
+    <row r="89" ht="16.5" spans="1:59">
       <c r="A89" s="6">
         <f t="shared" si="51"/>
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D89" s="8">
         <v>0</v>
@@ -19517,17 +19786,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" ht="16.5" spans="1:58">
+    <row r="90" ht="16.5" spans="1:59">
       <c r="A90" s="6">
         <f t="shared" si="51"/>
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D90" s="8">
         <v>0</v>
@@ -19707,17 +19979,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" ht="16.5" spans="1:58">
+    <row r="91" ht="16.5" spans="1:59">
       <c r="A91" s="6">
         <f t="shared" si="51"/>
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91" s="8">
         <v>0</v>
@@ -19897,17 +20172,20 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" ht="16.5" spans="1:58">
+    <row r="92" ht="16.5" spans="1:59">
       <c r="A92" s="6">
         <f t="shared" si="51"/>
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D92" s="8">
         <v>0</v>
@@ -20086,6 +20364,254 @@
       <c r="BF92" s="8">
         <f t="shared" si="50"/>
         <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:59">
+      <c r="D93" s="2">
+        <f>SUM(D2:D92)</f>
+        <v>1400</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" ref="E93:S93" si="52">SUM(E2:E92)</f>
+        <v>692</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="52"/>
+        <v>708</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="52"/>
+        <v>2270</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="52"/>
+        <v>2978</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="52"/>
+        <v>2325</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="52"/>
+        <v>653</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="52"/>
+        <v>4076</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="52"/>
+        <v>4729</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="52"/>
+        <v>4018</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" si="52"/>
+        <v>711</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="52"/>
+        <v>6223</v>
+      </c>
+      <c r="P93" s="2">
+        <f t="shared" si="52"/>
+        <v>6934</v>
+      </c>
+      <c r="Q93" s="2">
+        <f t="shared" si="52"/>
+        <v>4531</v>
+      </c>
+      <c r="R93" s="2">
+        <f t="shared" si="52"/>
+        <v>2403</v>
+      </c>
+      <c r="S93" s="2">
+        <f t="shared" si="52"/>
+        <v>4251</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" customHeight="1" spans="1:58">
+      <c r="A94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG94" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR94" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT94" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY94" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ94" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB94" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC94" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE94" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF94" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
